--- a/nmadb/501244.xlsx
+++ b/nmadb/501244.xlsx
@@ -458,10 +458,13 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
